--- a/biology/Médecine/1156_en_santé_et_médecine/1156_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1156_en_santé_et_médecine/1156_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1156_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1156_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1156 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1156_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1156_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Première mention d'« un hôpital [« champêtre »], pour les pauvres mendiants, donné par Ermengarde, vicomtesse de Narbonne, à deux frères qui le servaient[1] ».
-1156-1159 : fondation à Prague par le roi Vladislav Ier, d'un hôpital confié aux frères de Saint-Jean de Jérusalem, premier établissement tenu par leur ordre en Bohême[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Première mention d'« un hôpital [« champêtre »], pour les pauvres mendiants, donné par Ermengarde, vicomtesse de Narbonne, à deux frères qui le servaient ».
+1156-1159 : fondation à Prague par le roi Vladislav Ier, d'un hôpital confié aux frères de Saint-Jean de Jérusalem, premier établissement tenu par leur ordre en Bohême.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1156_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1156_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1122-1156 : fl. Barthélemy[3], médecin, qui adresse son disciple Bernard[3] à Pierre le Vénérable, abbé de Cluny, affligé d'un catarrhe.
-1156 ou 1157 : fl. Almon, « flebotomus » (« saigneur ») de l'abbaye de Saint-Maur des Fossés[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1122-1156 : fl. Barthélemy, médecin, qui adresse son disciple Bernard à Pierre le Vénérable, abbé de Cluny, affligé d'un catarrhe.
+1156 ou 1157 : fl. Almon, « flebotomus » (« saigneur ») de l'abbaye de Saint-Maur des Fossés.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1156_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1156_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Zhang Congzheng (mort en 1228), médecin chinois, auteur du traité des Soins des confucianistes à leurs parents, fondateur de l'« école de l'attaque et de la purgation[4],[5] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Zhang Congzheng (mort en 1228), médecin chinois, auteur du traité des Soins des confucianistes à leurs parents, fondateur de l'« école de l'attaque et de la purgation, ».</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1156_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1156_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,9 +621,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre le 12 janvier 1152 et le 12 janvier 1156 : Richer (né à une date inconnue), médecin, archidiacre de Châteaudun puis du Dunois, cité dans des chartes de l'abbaye Notre-Dame de Josaphat[6],[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre le 12 janvier 1152 et le 12 janvier 1156 : Richer (né à une date inconnue), médecin, archidiacre de Châteaudun puis du Dunois, cité dans des chartes de l'abbaye Notre-Dame de Josaphat,.
 </t>
         </is>
       </c>
